--- a/1. documents/Testers/Bug Testing Testcase.xlsx
+++ b/1. documents/Testers/Bug Testing Testcase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>Seriousness (1-10)</t>
+  </si>
+  <si>
+    <t>Unable to compile</t>
+  </si>
+  <si>
+    <t>1. ./make.sh (to compile all the files)</t>
+  </si>
+  <si>
+    <t>Too many errors</t>
+  </si>
+  <si>
+    <t>Missing WMTTransactionData.txt to read</t>
+  </si>
+  <si>
+    <t>1. g++ -Wall -Werror -std=c++11 *.cpp</t>
+  </si>
+  <si>
+    <t>Unable to proceed to main menu due to missing file</t>
   </si>
 </sst>
 </file>
@@ -128,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -152,6 +170,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,13 +514,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
     <col min="4" max="4" width="51.81640625" customWidth="1"/>
     <col min="5" max="5" width="57.81640625" customWidth="1"/>
     <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
@@ -595,65 +622,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+    <row r="4" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10">
+        <v>10</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>

--- a/1. documents/Testers/Bug Testing Testcase.xlsx
+++ b/1. documents/Testers/Bug Testing Testcase.xlsx
@@ -46,9 +46,6 @@
     <t>1. Press enter for all 3 fields in login</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Incorrect user account</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Unable to proceed to main menu due to missing file</t>
+  </si>
+  <si>
+    <t>Solved</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
@@ -604,22 +604,22 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="5">
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,22 +630,22 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="10">
         <v>10</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.25">
@@ -656,22 +656,22 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="10">
         <v>10</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/1. documents/Testers/Bug Testing Testcase.xlsx
+++ b/1. documents/Testers/Bug Testing Testcase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +83,31 @@
   </si>
   <si>
     <t>Solved</t>
+  </si>
+  <si>
+    <t>Printing summary does not display summary</t>
+  </si>
+  <si>
+    <t>After selecting print summary result, nothing was being displayed</t>
+  </si>
+  <si>
+    <t>1. After login with managerUser
+2. Select Option 7
+3. Select Option A
+4.Pressed enter when prompt to input date and time</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Rest of the functions are not up yet</t>
+  </si>
+  <si>
+    <t>No function was done when choice 1-6 is selected in main menu</t>
+  </si>
+  <si>
+    <t>1. After login with managerUser
+2. Select Option 1-6</t>
   </si>
 </sst>
 </file>
@@ -184,7 +209,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -514,7 +553,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -674,25 +713,57 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="10">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="10">
+        <v>8</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -1016,7 +1087,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1. documents/Testers/Bug Testing Testcase.xlsx
+++ b/1. documents/Testers/Bug Testing Testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="129" yWindow="549" windowWidth="16663" windowHeight="8743"/>
+    <workbookView xWindow="130" yWindow="550" windowWidth="16660" windowHeight="8740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -110,13 +110,13 @@
 2. Select Option 1-6</t>
   </si>
   <si>
-    <t>Item cannot be found</t>
-  </si>
-  <si>
-    <t>Types in an item ID but item does not exist</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. After login with staffUser 2. Enter Item ID to process IN/OUT Stock                                    </t>
+  </si>
+  <si>
+    <t>Item cannot be found after execution of .exe file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text file storing data of stocks and transaction were wiped after executing .exe file </t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -537,16 +551,16 @@
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="1"/>
-    <col min="3" max="3" width="27.53515625" customWidth="1"/>
-    <col min="4" max="4" width="51.84375" customWidth="1"/>
-    <col min="5" max="5" width="57.84375" customWidth="1"/>
-    <col min="6" max="6" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="51.81640625" customWidth="1"/>
+    <col min="5" max="5" width="57.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -590,7 +604,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -616,7 +630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="7" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -642,7 +656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -668,7 +682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="12" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -694,7 +708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="12" customFormat="1" ht="49.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -720,7 +734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="12" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -746,7 +760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -754,21 +768,25 @@
         <v>0.08</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="10">
         <v>10</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -778,7 +796,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -788,7 +806,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -798,7 +816,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -808,7 +826,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -818,7 +836,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -828,7 +846,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -838,7 +856,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -848,7 +866,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -858,7 +876,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -868,7 +886,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -878,7 +896,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -888,7 +906,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -898,7 +916,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -908,7 +926,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -918,7 +936,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -928,7 +946,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -938,7 +956,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -948,7 +966,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -958,7 +976,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -968,7 +986,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -978,7 +996,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -988,7 +1006,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -998,7 +1016,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1008,7 +1026,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1018,7 +1036,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1028,7 +1046,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1038,7 +1056,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1048,7 +1066,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1058,7 +1076,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1068,7 +1086,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1080,7 +1098,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1. documents/Testers/Bug Testing Testcase.xlsx
+++ b/1. documents/Testers/Bug Testing Testcase.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weihao\Desktop\github 222 ass2\trunk\1. documents\Testers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="129" yWindow="549" windowWidth="16663" windowHeight="8743"/>
+    <workbookView xWindow="132" yWindow="552" windowWidth="16668" windowHeight="8748"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -119,11 +124,14 @@
     <t>1. After login with staff User ID &amp; PASSWORD
 2. Type in item ID</t>
   </si>
+  <si>
+    <t xml:space="preserve">3 out of 3 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -240,6 +248,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -287,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,9 +331,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,6 +383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,19 +580,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="1"/>
-    <col min="3" max="3" width="27.53515625" customWidth="1"/>
-    <col min="4" max="4" width="51.84375" customWidth="1"/>
-    <col min="5" max="5" width="57.84375" customWidth="1"/>
-    <col min="6" max="6" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="51.88671875" customWidth="1"/>
+    <col min="5" max="5" width="57.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -591,7 +636,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -617,7 +662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="7" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -643,7 +688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -669,7 +714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="12" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="12" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -695,7 +740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="12" customFormat="1" ht="49.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -721,7 +766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="12" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="12" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -747,7 +792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="12" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="12" customFormat="1" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -766,10 +811,14 @@
       <c r="F8" s="10">
         <v>10</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -779,7 +828,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -789,7 +838,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -799,7 +848,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -809,7 +858,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -819,7 +868,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -829,7 +878,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -839,7 +888,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -849,7 +898,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -859,7 +908,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -869,7 +918,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -879,7 +928,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -889,7 +938,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -899,7 +948,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -909,7 +958,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -919,7 +968,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -929,7 +978,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -939,7 +988,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -949,7 +998,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -959,7 +1008,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -969,7 +1018,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -979,7 +1028,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -989,7 +1038,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -999,7 +1048,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1009,7 +1058,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1019,7 +1068,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1029,7 +1078,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1039,7 +1088,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1049,7 +1098,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1059,7 +1108,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1069,7 +1118,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
